--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.925837786332683</v>
+        <v>1.338586666666667</v>
       </c>
       <c r="H2">
-        <v>0.925837786332683</v>
+        <v>4.01576</v>
       </c>
       <c r="I2">
-        <v>0.01245535249033873</v>
+        <v>0.01695214694907981</v>
       </c>
       <c r="J2">
-        <v>0.01245535249033873</v>
+        <v>0.01695214694907981</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.10384947421424</v>
+        <v>3.904691</v>
       </c>
       <c r="N2">
-        <v>2.10384947421424</v>
+        <v>11.714073</v>
       </c>
       <c r="O2">
-        <v>0.7393071430812246</v>
+        <v>0.826043361576403</v>
       </c>
       <c r="P2">
-        <v>0.7393071430812246</v>
+        <v>0.826043361576403</v>
       </c>
       <c r="Q2">
-        <v>1.947823339983691</v>
+        <v>5.226767310053334</v>
       </c>
       <c r="R2">
-        <v>1.947823339983691</v>
+        <v>47.04090579048</v>
       </c>
       <c r="S2">
-        <v>0.009208331065701942</v>
+        <v>0.01400320845175505</v>
       </c>
       <c r="T2">
-        <v>0.009208331065701942</v>
+        <v>0.01400320845175505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.925837786332683</v>
+        <v>1.338586666666667</v>
       </c>
       <c r="H3">
-        <v>0.925837786332683</v>
+        <v>4.01576</v>
       </c>
       <c r="I3">
-        <v>0.01245535249033873</v>
+        <v>0.01695214694907981</v>
       </c>
       <c r="J3">
-        <v>0.01245535249033873</v>
+        <v>0.01695214694907981</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.364651508139978</v>
+        <v>0.3764886666666666</v>
       </c>
       <c r="N3">
-        <v>0.364651508139978</v>
+        <v>1.129466</v>
       </c>
       <c r="O3">
-        <v>0.128141042411751</v>
+        <v>0.07964675407317792</v>
       </c>
       <c r="P3">
-        <v>0.128141042411751</v>
+        <v>0.07964675407317791</v>
       </c>
       <c r="Q3">
-        <v>0.3376081450791916</v>
+        <v>0.5039627093511111</v>
       </c>
       <c r="R3">
-        <v>0.3376081450791916</v>
+        <v>4.53566438416</v>
       </c>
       <c r="S3">
-        <v>0.001596041851717804</v>
+        <v>0.001350183479065733</v>
       </c>
       <c r="T3">
-        <v>0.001596041851717804</v>
+        <v>0.001350183479065732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.925837786332683</v>
+        <v>1.338586666666667</v>
       </c>
       <c r="H4">
-        <v>0.925837786332683</v>
+        <v>4.01576</v>
       </c>
       <c r="I4">
-        <v>0.01245535249033873</v>
+        <v>0.01695214694907981</v>
       </c>
       <c r="J4">
-        <v>0.01245535249033873</v>
+        <v>0.01695214694907981</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.377203261008001</v>
+        <v>0.030964</v>
       </c>
       <c r="N4">
-        <v>0.377203261008001</v>
+        <v>0.092892</v>
       </c>
       <c r="O4">
-        <v>0.1325518145070244</v>
+        <v>0.006550481625268618</v>
       </c>
       <c r="P4">
-        <v>0.1325518145070244</v>
+        <v>0.006550481625268617</v>
       </c>
       <c r="Q4">
-        <v>0.3492290321691169</v>
+        <v>0.04144799754666667</v>
       </c>
       <c r="R4">
-        <v>0.3492290321691169</v>
+        <v>0.37303197792</v>
       </c>
       <c r="S4">
-        <v>0.001650979572918983</v>
+        <v>0.0001110447270988007</v>
       </c>
       <c r="T4">
-        <v>0.001650979572918983</v>
+        <v>0.0001110447270988007</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.2354374299088</v>
+        <v>1.338586666666667</v>
       </c>
       <c r="H5">
-        <v>52.2354374299088</v>
+        <v>4.01576</v>
       </c>
       <c r="I5">
-        <v>0.7027265416047322</v>
+        <v>0.01695214694907981</v>
       </c>
       <c r="J5">
-        <v>0.7027265416047322</v>
+        <v>0.01695214694907981</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.10384947421424</v>
+        <v>0.4148370000000001</v>
       </c>
       <c r="N5">
-        <v>2.10384947421424</v>
+        <v>1.244511</v>
       </c>
       <c r="O5">
-        <v>0.7393071430812246</v>
+        <v>0.08775940272515043</v>
       </c>
       <c r="P5">
-        <v>0.7393071430812246</v>
+        <v>0.08775940272515041</v>
       </c>
       <c r="Q5">
-        <v>109.8954975722645</v>
+        <v>0.5552952770400001</v>
       </c>
       <c r="R5">
-        <v>109.8954975722645</v>
+        <v>4.997657493360001</v>
       </c>
       <c r="S5">
-        <v>0.5195307518411439</v>
+        <v>0.001487710291160225</v>
       </c>
       <c r="T5">
-        <v>0.5195307518411439</v>
+        <v>0.001487710291160225</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.2354374299088</v>
+        <v>53.029045</v>
       </c>
       <c r="H6">
-        <v>52.2354374299088</v>
+        <v>159.087135</v>
       </c>
       <c r="I6">
-        <v>0.7027265416047322</v>
+        <v>0.6715711322957788</v>
       </c>
       <c r="J6">
-        <v>0.7027265416047322</v>
+        <v>0.6715711322957788</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.364651508139978</v>
+        <v>3.904691</v>
       </c>
       <c r="N6">
-        <v>0.364651508139978</v>
+        <v>11.714073</v>
       </c>
       <c r="O6">
-        <v>0.128141042411751</v>
+        <v>0.826043361576403</v>
       </c>
       <c r="P6">
-        <v>0.128141042411751</v>
+        <v>0.826043361576403</v>
       </c>
       <c r="Q6">
-        <v>19.0477310371677</v>
+        <v>207.062034750095</v>
       </c>
       <c r="R6">
-        <v>19.0477310371677</v>
+        <v>1863.558312750855</v>
       </c>
       <c r="S6">
-        <v>0.09004811157163513</v>
+        <v>0.5547468756592764</v>
       </c>
       <c r="T6">
-        <v>0.09004811157163513</v>
+        <v>0.5547468756592764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.2354374299088</v>
+        <v>53.029045</v>
       </c>
       <c r="H7">
-        <v>52.2354374299088</v>
+        <v>159.087135</v>
       </c>
       <c r="I7">
-        <v>0.7027265416047322</v>
+        <v>0.6715711322957788</v>
       </c>
       <c r="J7">
-        <v>0.7027265416047322</v>
+        <v>0.6715711322957788</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.377203261008001</v>
+        <v>0.3764886666666666</v>
       </c>
       <c r="N7">
-        <v>0.377203261008001</v>
+        <v>1.129466</v>
       </c>
       <c r="O7">
-        <v>0.1325518145070244</v>
+        <v>0.07964675407317792</v>
       </c>
       <c r="P7">
-        <v>0.1325518145070244</v>
+        <v>0.07964675407317791</v>
       </c>
       <c r="Q7">
-        <v>19.70337733874099</v>
+        <v>19.96483444665666</v>
       </c>
       <c r="R7">
-        <v>19.70337733874099</v>
+        <v>179.68351001991</v>
       </c>
       <c r="S7">
-        <v>0.0931476781919532</v>
+        <v>0.05348846081660753</v>
       </c>
       <c r="T7">
-        <v>0.0931476781919532</v>
+        <v>0.05348846081660752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.645670915119772</v>
+        <v>53.029045</v>
       </c>
       <c r="H8">
-        <v>0.645670915119772</v>
+        <v>159.087135</v>
       </c>
       <c r="I8">
-        <v>0.00868625039860554</v>
+        <v>0.6715711322957788</v>
       </c>
       <c r="J8">
-        <v>0.00868625039860554</v>
+        <v>0.6715711322957788</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.10384947421424</v>
+        <v>0.030964</v>
       </c>
       <c r="N8">
-        <v>2.10384947421424</v>
+        <v>0.092892</v>
       </c>
       <c r="O8">
-        <v>0.7393071430812246</v>
+        <v>0.006550481625268618</v>
       </c>
       <c r="P8">
-        <v>0.7393071430812246</v>
+        <v>0.006550481625268617</v>
       </c>
       <c r="Q8">
-        <v>1.35839441529016</v>
+        <v>1.64199134938</v>
       </c>
       <c r="R8">
-        <v>1.35839441529016</v>
+        <v>14.77792214442</v>
       </c>
       <c r="S8">
-        <v>0.00642180696628121</v>
+        <v>0.004399114362164339</v>
       </c>
       <c r="T8">
-        <v>0.00642180696628121</v>
+        <v>0.004399114362164338</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.645670915119772</v>
+        <v>53.029045</v>
       </c>
       <c r="H9">
-        <v>0.645670915119772</v>
+        <v>159.087135</v>
       </c>
       <c r="I9">
-        <v>0.00868625039860554</v>
+        <v>0.6715711322957788</v>
       </c>
       <c r="J9">
-        <v>0.00868625039860554</v>
+        <v>0.6715711322957788</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.364651508139978</v>
+        <v>0.4148370000000001</v>
       </c>
       <c r="N9">
-        <v>0.364651508139978</v>
+        <v>1.244511</v>
       </c>
       <c r="O9">
-        <v>0.128141042411751</v>
+        <v>0.08775940272515043</v>
       </c>
       <c r="P9">
-        <v>0.128141042411751</v>
+        <v>0.08775940272515041</v>
       </c>
       <c r="Q9">
-        <v>0.2354448729605446</v>
+        <v>21.998409940665</v>
       </c>
       <c r="R9">
-        <v>0.2354448729605446</v>
+        <v>197.985689465985</v>
       </c>
       <c r="S9">
-        <v>0.001113065180726802</v>
+        <v>0.05893668145773052</v>
       </c>
       <c r="T9">
-        <v>0.001113065180726802</v>
+        <v>0.05893668145773052</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,433 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.645670915119772</v>
+        <v>1.277193666666667</v>
       </c>
       <c r="H10">
-        <v>0.645670915119772</v>
+        <v>3.831581</v>
       </c>
       <c r="I10">
-        <v>0.00868625039860554</v>
+        <v>0.0161746529073705</v>
       </c>
       <c r="J10">
-        <v>0.00868625039860554</v>
+        <v>0.0161746529073705</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.377203261008001</v>
+        <v>3.904691</v>
       </c>
       <c r="N10">
-        <v>0.377203261008001</v>
+        <v>11.714073</v>
       </c>
       <c r="O10">
-        <v>0.1325518145070244</v>
+        <v>0.826043361576403</v>
       </c>
       <c r="P10">
-        <v>0.1325518145070244</v>
+        <v>0.826043361576403</v>
       </c>
       <c r="Q10">
-        <v>0.2435491747211982</v>
+        <v>4.987046615490333</v>
       </c>
       <c r="R10">
-        <v>0.2435491747211982</v>
+        <v>44.883419539413</v>
       </c>
       <c r="S10">
-        <v>0.001151378251597528</v>
+        <v>0.01336096465993586</v>
       </c>
       <c r="T10">
-        <v>0.001151378251597528</v>
+        <v>0.01336096465993586</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.44127474072901</v>
+        <v>1.277193666666667</v>
       </c>
       <c r="H11">
-        <v>4.44127474072901</v>
+        <v>3.831581</v>
       </c>
       <c r="I11">
-        <v>0.05974874132253247</v>
+        <v>0.0161746529073705</v>
       </c>
       <c r="J11">
-        <v>0.05974874132253247</v>
+        <v>0.0161746529073705</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.10384947421424</v>
+        <v>0.3764886666666666</v>
       </c>
       <c r="N11">
-        <v>2.10384947421424</v>
+        <v>1.129466</v>
       </c>
       <c r="O11">
-        <v>0.7393071430812246</v>
+        <v>0.07964675407317792</v>
       </c>
       <c r="P11">
-        <v>0.7393071430812246</v>
+        <v>0.07964675407317791</v>
       </c>
       <c r="Q11">
-        <v>9.343773528123712</v>
+        <v>0.4808489406384444</v>
       </c>
       <c r="R11">
-        <v>9.343773528123712</v>
+        <v>4.327640465746</v>
       </c>
       <c r="S11">
-        <v>0.04417267124986059</v>
+        <v>0.00128825860233235</v>
       </c>
       <c r="T11">
-        <v>0.04417267124986059</v>
+        <v>0.00128825860233235</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.44127474072901</v>
+        <v>1.277193666666667</v>
       </c>
       <c r="H12">
-        <v>4.44127474072901</v>
+        <v>3.831581</v>
       </c>
       <c r="I12">
-        <v>0.05974874132253247</v>
+        <v>0.0161746529073705</v>
       </c>
       <c r="J12">
-        <v>0.05974874132253247</v>
+        <v>0.0161746529073705</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.364651508139978</v>
+        <v>0.030964</v>
       </c>
       <c r="N12">
-        <v>0.364651508139978</v>
+        <v>0.092892</v>
       </c>
       <c r="O12">
-        <v>0.128141042411751</v>
+        <v>0.006550481625268618</v>
       </c>
       <c r="P12">
-        <v>0.128141042411751</v>
+        <v>0.006550481625268617</v>
       </c>
       <c r="Q12">
-        <v>1.619517532270823</v>
+        <v>0.03954702469466666</v>
       </c>
       <c r="R12">
-        <v>1.619517532270823</v>
+        <v>0.355923222252</v>
       </c>
       <c r="S12">
-        <v>0.007656265995859375</v>
+        <v>0.0001059517666648281</v>
       </c>
       <c r="T12">
-        <v>0.007656265995859375</v>
+        <v>0.000105951766664828</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.44127474072901</v>
+        <v>1.277193666666667</v>
       </c>
       <c r="H13">
-        <v>4.44127474072901</v>
+        <v>3.831581</v>
       </c>
       <c r="I13">
-        <v>0.05974874132253247</v>
+        <v>0.0161746529073705</v>
       </c>
       <c r="J13">
-        <v>0.05974874132253247</v>
+        <v>0.0161746529073705</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.377203261008001</v>
+        <v>0.4148370000000001</v>
       </c>
       <c r="N13">
-        <v>0.377203261008001</v>
+        <v>1.244511</v>
       </c>
       <c r="O13">
-        <v>0.1325518145070244</v>
+        <v>0.08775940272515043</v>
       </c>
       <c r="P13">
-        <v>0.1325518145070244</v>
+        <v>0.08775940272515041</v>
       </c>
       <c r="Q13">
-        <v>1.675263315235447</v>
+        <v>0.5298271890990001</v>
       </c>
       <c r="R13">
-        <v>1.675263315235447</v>
+        <v>4.768444701891</v>
       </c>
       <c r="S13">
-        <v>0.007919804076812505</v>
+        <v>0.001419477878437452</v>
       </c>
       <c r="T13">
-        <v>0.007919804076812505</v>
+        <v>0.001419477878437452</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.0843030007451</v>
+        <v>6.332713666666667</v>
       </c>
       <c r="H14">
-        <v>16.0843030007451</v>
+        <v>18.998141</v>
       </c>
       <c r="I14">
-        <v>0.2163831141837909</v>
+        <v>0.08019883608366485</v>
       </c>
       <c r="J14">
-        <v>0.2163831141837909</v>
+        <v>0.08019883608366483</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.10384947421424</v>
+        <v>3.904691</v>
       </c>
       <c r="N14">
-        <v>2.10384947421424</v>
+        <v>11.714073</v>
       </c>
       <c r="O14">
-        <v>0.7393071430812246</v>
+        <v>0.826043361576403</v>
       </c>
       <c r="P14">
-        <v>0.7393071430812246</v>
+        <v>0.826043361576403</v>
       </c>
       <c r="Q14">
-        <v>33.8389524112201</v>
+        <v>24.72729005981034</v>
       </c>
       <c r="R14">
-        <v>33.8389524112201</v>
+        <v>222.545610538293</v>
       </c>
       <c r="S14">
-        <v>0.1599735819582369</v>
+        <v>0.06624771615306543</v>
       </c>
       <c r="T14">
-        <v>0.1599735819582369</v>
+        <v>0.06624771615306543</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.0843030007451</v>
+        <v>6.332713666666667</v>
       </c>
       <c r="H15">
-        <v>16.0843030007451</v>
+        <v>18.998141</v>
       </c>
       <c r="I15">
-        <v>0.2163831141837909</v>
+        <v>0.08019883608366485</v>
       </c>
       <c r="J15">
-        <v>0.2163831141837909</v>
+        <v>0.08019883608366483</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.364651508139978</v>
+        <v>0.3764886666666666</v>
       </c>
       <c r="N15">
-        <v>0.364651508139978</v>
+        <v>1.129466</v>
       </c>
       <c r="O15">
-        <v>0.128141042411751</v>
+        <v>0.07964675407317792</v>
       </c>
       <c r="P15">
-        <v>0.128141042411751</v>
+        <v>0.07964675407317791</v>
       </c>
       <c r="Q15">
-        <v>5.865165346602073</v>
+        <v>2.384194924745111</v>
       </c>
       <c r="R15">
-        <v>5.865165346602073</v>
+        <v>21.457754322706</v>
       </c>
       <c r="S15">
-        <v>0.02772755781181192</v>
+        <v>0.006387576974510762</v>
       </c>
       <c r="T15">
-        <v>0.02772755781181192</v>
+        <v>0.006387576974510759</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.0843030007451</v>
+        <v>6.332713666666667</v>
       </c>
       <c r="H16">
-        <v>16.0843030007451</v>
+        <v>18.998141</v>
       </c>
       <c r="I16">
-        <v>0.2163831141837909</v>
+        <v>0.08019883608366485</v>
       </c>
       <c r="J16">
-        <v>0.2163831141837909</v>
+        <v>0.08019883608366483</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.377203261008001</v>
+        <v>0.030964</v>
       </c>
       <c r="N16">
-        <v>0.377203261008001</v>
+        <v>0.092892</v>
       </c>
       <c r="O16">
-        <v>0.1325518145070244</v>
+        <v>0.006550481625268618</v>
       </c>
       <c r="P16">
-        <v>0.1325518145070244</v>
+        <v>0.006550481625268617</v>
       </c>
       <c r="Q16">
-        <v>6.067051542921827</v>
+        <v>0.1960861459746667</v>
       </c>
       <c r="R16">
-        <v>6.067051542921827</v>
+        <v>1.764775313772</v>
       </c>
       <c r="S16">
-        <v>0.02868197441374212</v>
+        <v>0.0005253410021339764</v>
       </c>
       <c r="T16">
-        <v>0.02868197441374212</v>
+        <v>0.0005253410021339762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.332713666666667</v>
+      </c>
+      <c r="H17">
+        <v>18.998141</v>
+      </c>
+      <c r="I17">
+        <v>0.08019883608366485</v>
+      </c>
+      <c r="J17">
+        <v>0.08019883608366483</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4148370000000001</v>
+      </c>
+      <c r="N17">
+        <v>1.244511</v>
+      </c>
+      <c r="O17">
+        <v>0.08775940272515043</v>
+      </c>
+      <c r="P17">
+        <v>0.08775940272515041</v>
+      </c>
+      <c r="Q17">
+        <v>2.627043939339</v>
+      </c>
+      <c r="R17">
+        <v>23.643395454051</v>
+      </c>
+      <c r="S17">
+        <v>0.00703820195395467</v>
+      </c>
+      <c r="T17">
+        <v>0.007038201953954667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.5156353333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.546906</v>
+      </c>
+      <c r="I18">
+        <v>0.00653011580084797</v>
+      </c>
+      <c r="J18">
+        <v>0.006530115800847969</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.904691</v>
+      </c>
+      <c r="N18">
+        <v>11.714073</v>
+      </c>
+      <c r="O18">
+        <v>0.826043361576403</v>
+      </c>
+      <c r="P18">
+        <v>0.826043361576403</v>
+      </c>
+      <c r="Q18">
+        <v>2.013396645348667</v>
+      </c>
+      <c r="R18">
+        <v>18.120569808138</v>
+      </c>
+      <c r="S18">
+        <v>0.005394158807615642</v>
+      </c>
+      <c r="T18">
+        <v>0.005394158807615641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.5156353333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.546906</v>
+      </c>
+      <c r="I19">
+        <v>0.00653011580084797</v>
+      </c>
+      <c r="J19">
+        <v>0.006530115800847969</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3764886666666666</v>
+      </c>
+      <c r="N19">
+        <v>1.129466</v>
+      </c>
+      <c r="O19">
+        <v>0.07964675407317792</v>
+      </c>
+      <c r="P19">
+        <v>0.07964675407317791</v>
+      </c>
+      <c r="Q19">
+        <v>0.1941308591328889</v>
+      </c>
+      <c r="R19">
+        <v>1.747177732196</v>
+      </c>
+      <c r="S19">
+        <v>0.0005201025272595116</v>
+      </c>
+      <c r="T19">
+        <v>0.0005201025272595114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.5156353333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.546906</v>
+      </c>
+      <c r="I20">
+        <v>0.00653011580084797</v>
+      </c>
+      <c r="J20">
+        <v>0.006530115800847969</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.030964</v>
+      </c>
+      <c r="N20">
+        <v>0.092892</v>
+      </c>
+      <c r="O20">
+        <v>0.006550481625268618</v>
+      </c>
+      <c r="P20">
+        <v>0.006550481625268617</v>
+      </c>
+      <c r="Q20">
+        <v>0.01596613246133333</v>
+      </c>
+      <c r="R20">
+        <v>0.143695192152</v>
+      </c>
+      <c r="S20">
+        <v>4.277540356433089E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.277540356433088E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.5156353333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.546906</v>
+      </c>
+      <c r="I21">
+        <v>0.00653011580084797</v>
+      </c>
+      <c r="J21">
+        <v>0.006530115800847969</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4148370000000001</v>
+      </c>
+      <c r="N21">
+        <v>1.244511</v>
+      </c>
+      <c r="O21">
+        <v>0.08775940272515043</v>
+      </c>
+      <c r="P21">
+        <v>0.08775940272515041</v>
+      </c>
+      <c r="Q21">
+        <v>0.213904614774</v>
+      </c>
+      <c r="R21">
+        <v>1.925141532966</v>
+      </c>
+      <c r="S21">
+        <v>0.0005730790624084852</v>
+      </c>
+      <c r="T21">
+        <v>0.0005730790624084851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>16.46948866666667</v>
+      </c>
+      <c r="H22">
+        <v>49.408466</v>
+      </c>
+      <c r="I22">
+        <v>0.2085731159632581</v>
+      </c>
+      <c r="J22">
+        <v>0.2085731159632581</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.904691</v>
+      </c>
+      <c r="N22">
+        <v>11.714073</v>
+      </c>
+      <c r="O22">
+        <v>0.826043361576403</v>
+      </c>
+      <c r="P22">
+        <v>0.826043361576403</v>
+      </c>
+      <c r="Q22">
+        <v>64.30826417133534</v>
+      </c>
+      <c r="R22">
+        <v>578.7743775420181</v>
+      </c>
+      <c r="S22">
+        <v>0.1722904378447546</v>
+      </c>
+      <c r="T22">
+        <v>0.1722904378447546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>16.46948866666667</v>
+      </c>
+      <c r="H23">
+        <v>49.408466</v>
+      </c>
+      <c r="I23">
+        <v>0.2085731159632581</v>
+      </c>
+      <c r="J23">
+        <v>0.2085731159632581</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.3764886666666666</v>
+      </c>
+      <c r="N23">
+        <v>1.129466</v>
+      </c>
+      <c r="O23">
+        <v>0.07964675407317792</v>
+      </c>
+      <c r="P23">
+        <v>0.07964675407317791</v>
+      </c>
+      <c r="Q23">
+        <v>6.20057582879511</v>
+      </c>
+      <c r="R23">
+        <v>55.805182459156</v>
+      </c>
+      <c r="S23">
+        <v>0.01661217167340204</v>
+      </c>
+      <c r="T23">
+        <v>0.01661217167340203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>16.46948866666667</v>
+      </c>
+      <c r="H24">
+        <v>49.408466</v>
+      </c>
+      <c r="I24">
+        <v>0.2085731159632581</v>
+      </c>
+      <c r="J24">
+        <v>0.2085731159632581</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.030964</v>
+      </c>
+      <c r="N24">
+        <v>0.092892</v>
+      </c>
+      <c r="O24">
+        <v>0.006550481625268618</v>
+      </c>
+      <c r="P24">
+        <v>0.006550481625268617</v>
+      </c>
+      <c r="Q24">
+        <v>0.5099612470746667</v>
+      </c>
+      <c r="R24">
+        <v>4.589651223672001</v>
+      </c>
+      <c r="S24">
+        <v>0.001366254363642343</v>
+      </c>
+      <c r="T24">
+        <v>0.001366254363642342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.46948866666667</v>
+      </c>
+      <c r="H25">
+        <v>49.408466</v>
+      </c>
+      <c r="I25">
+        <v>0.2085731159632581</v>
+      </c>
+      <c r="J25">
+        <v>0.2085731159632581</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4148370000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.244511</v>
+      </c>
+      <c r="O25">
+        <v>0.08775940272515043</v>
+      </c>
+      <c r="P25">
+        <v>0.08775940272515041</v>
+      </c>
+      <c r="Q25">
+        <v>6.832153270014001</v>
+      </c>
+      <c r="R25">
+        <v>61.48937943012601</v>
+      </c>
+      <c r="S25">
+        <v>0.01830425208145907</v>
+      </c>
+      <c r="T25">
+        <v>0.01830425208145907</v>
       </c>
     </row>
   </sheetData>
